--- a/local/public/uploads/test4.xlsx
+++ b/local/public/uploads/test4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tee\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A991F8-324C-48B1-A544-838DED971719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74BEF33-BFB2-44DD-9ABE-65A48FBF7563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{A04947A0-9F50-495B-9F98-0DFDB0AC31C5}"/>
   </bookViews>
@@ -110,9 +110,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,100 +435,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC95433C-2636-4805-B3B8-05654123D139}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.796875" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="4" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.3984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
